--- a/Tempel1_Spitzer_data_log.xlsx
+++ b/Tempel1_Spitzer_data_log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="51760" yWindow="6340" windowWidth="31580" windowHeight="18400" tabRatio="500"/>
+    <workbookView xWindow="19320" yWindow="6000" windowWidth="35080" windowHeight="18500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Spitzer" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="77">
+  <si>
+    <t xml:space="preserve">3.6 b </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radial profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-0.085,0.06]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250,455,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>850,355,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>850.355,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-0.07,0.095],[-0.07,0.065]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450,175,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-0.04,0.06],[-0.065,0.05]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450,175,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radial profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-0.05,0.03]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>2015 Feb 08</t>
   </si>
@@ -209,6 +257,54 @@
   </si>
   <si>
     <t>no file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radial profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-0.2,.18]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 aper size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6 error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>390,150,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6 aper size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>850,150,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -269,6 +365,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -610,35 +708,62 @@
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="31.140625" customWidth="1"/>
     <col min="4" max="5" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="13" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18">
+    <row r="1" spans="1:15" ht="18">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2">
         <v>-3.97</v>
@@ -647,18 +772,18 @@
         <v>500</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="18">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
         <v>-3.53</v>
@@ -667,18 +792,18 @@
         <v>500</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="18">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2">
         <v>-3.41</v>
@@ -687,18 +812,18 @@
         <v>500</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="27">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2">
         <v>-1.7</v>
@@ -707,18 +832,18 @@
         <v>60</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3">
         <v>-1.67</v>
@@ -727,18 +852,18 @@
         <v>60</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2">
         <v>-1.63</v>
@@ -747,18 +872,18 @@
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2">
         <v>-1.59</v>
@@ -767,18 +892,18 @@
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2">
         <v>-1.58</v>
@@ -787,18 +912,18 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="36">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>-1.56</v>
@@ -807,21 +932,21 @@
         <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2">
         <v>-1.55</v>
@@ -830,18 +955,18 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2">
         <v>-1.54</v>
@@ -850,18 +975,18 @@
         <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2">
         <v>1.54</v>
@@ -870,18 +995,42 @@
         <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="6">
+        <v>4.2708333333333327E-2</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13" t="s">
+        <v>72</v>
+      </c>
+      <c r="O13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="18">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2">
         <v>2.06</v>
@@ -890,18 +1039,42 @@
         <v>210</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="6">
+        <v>4.2708333333333327E-2</v>
+      </c>
+      <c r="K14" s="6">
+        <v>4.2766203703703702E-2</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="18">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2">
         <v>2.12</v>
@@ -910,18 +1083,42 @@
         <v>210</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="6">
+        <v>4.2766203703703702E-2</v>
+      </c>
+      <c r="K15" s="6">
+        <v>4.2766203703703702E-2</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="18">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2">
         <v>2.17</v>
@@ -930,18 +1127,42 @@
         <v>700</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="6">
+        <v>4.2708333333333327E-2</v>
+      </c>
+      <c r="K16" s="6">
+        <v>4.2708333333333327E-2</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2">
         <v>2.25</v>
@@ -950,18 +1171,24 @@
         <v>700</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18">
+        <v>48</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2">
         <v>2.2999999999999998</v>
@@ -970,18 +1197,18 @@
         <v>700</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2">
         <v>2.37</v>
@@ -990,18 +1217,18 @@
         <v>700</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2">
         <v>3.7</v>
@@ -1010,13 +1237,14 @@
         <v>5600</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
